--- a/data dictionary/数据结构描述表.xlsx
+++ b/data dictionary/数据结构描述表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clutch\Desktop\data_labeling\data dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD12CFA-D8B0-4D27-886F-868693614BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D47CA-3FA8-4576-9F6A-C81F06F0AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户的基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DSTR3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务的分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DSTR6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +180,18 @@
   </si>
   <si>
     <t>用户历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
@@ -639,7 +639,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
@@ -704,7 +704,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
@@ -780,7 +780,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="1" t="s">
@@ -856,7 +856,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="1" t="s">
@@ -932,7 +932,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="1" t="s">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="1" t="s">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="5"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="1" t="s">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="5"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="1" t="s">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="5"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1286,17 +1286,83 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:I60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:I47"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:F58"/>
@@ -1308,83 +1374,17 @@
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:I52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
